--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE02CE-762D-4513-A8BF-CDA0984906C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="init" sheetId="14" r:id="rId1"/>
+    <sheet name="跨平台" sheetId="15" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
-  <si>
-    <t>LoadPreInitModules()</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
   </si>
@@ -350,11 +347,23 @@
     <t>对应的.obb.png就是ZIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LoadPreInitModules()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片跨平台的做法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己在应用层实现一个IPlatformFile，设置为最上面的类，然后在OpenFile里面判断要读取的文件是否在指定目录，如果是，则修改名字，重定向到我们自己的国家目录下面，然后继续往回抛事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,23 +600,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -643,23 +635,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -835,11 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,47 +829,47 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -902,90 +877,90 @@
     <row r="37" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.15">
@@ -997,7 +972,7 @@
     <row r="54" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D54" s="10"/>
       <c r="E54" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.15">
@@ -1016,19 +991,19 @@
     <row r="59" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D59" s="10"/>
       <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D60" s="10"/>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D61" s="10"/>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1040,13 +1015,13 @@
     <row r="64" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D64" s="10"/>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="3:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D65" s="10"/>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.15">
@@ -1087,77 +1062,77 @@
     </row>
     <row r="78" spans="3:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="27" x14ac:dyDescent="0.15">
       <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C92" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C93" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="27" x14ac:dyDescent="0.15">
       <c r="C94" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C95" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C100" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C101" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="27" x14ac:dyDescent="0.15">
       <c r="C102" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C103" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1168,4 +1143,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD1AB68-C8CD-4B29-9816-BD6EADF291F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="init" sheetId="14" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
   </si>
@@ -26,9 +27,6 @@
   <si>
     <t>文件系统初始化</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaunchCheckForFileOverride(CmdLine, bFileOverrideFound)</t>
   </si>
   <si>
     <t>IPlatformFile::GetPlatformPhysical();</t>
@@ -359,11 +357,49 @@
     <t>自己在应用层实现一个IPlatformFile，设置为最上面的类，然后在OpenFile里面判断要读取的文件是否在指定目录，如果是，则修改名字，重定向到我们自己的国家目录下面，然后继续往回抛事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LaunchCheckForFileOverride(CmdLine, bFileOverrideFound)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class MYPROJECT2_API MyPlatformFile : public IPlatformFile</t>
+  </si>
+  <si>
+    <t>IFileHandle* MyPlatformFile::OpenRead(const TCHAR* Filename, bool bAllowWrite)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>FString newFileName = Filename;</t>
+  </si>
+  <si>
+    <t>newFileName = newFileName.Replace(TEXT("ui_cn"), TEXT("ui_en"));</t>
+  </si>
+  <si>
+    <t>IFileHandle* InnerHandle = LowerLevel-&gt;OpenRead(*newFileName, bAllowWrite);</t>
+  </si>
+  <si>
+    <t>if (!InnerHandle)</t>
+  </si>
+  <si>
+    <t>return nullptr;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>return InnerHandle;</t>
+  </si>
+  <si>
+    <t>重写OpenRead，重定向到目标语言的目录里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,6 +636,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -635,6 +688,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -810,11 +880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,7 +904,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -849,27 +919,27 @@
     </row>
     <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -877,90 +947,90 @@
     <row r="37" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.15">
@@ -972,7 +1042,7 @@
     <row r="54" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D54" s="10"/>
       <c r="E54" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.15">
@@ -991,19 +1061,19 @@
     <row r="59" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D59" s="10"/>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D60" s="10"/>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D61" s="10"/>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1015,13 +1085,13 @@
     <row r="64" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D64" s="10"/>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="3:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D65" s="10"/>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.15">
@@ -1062,77 +1132,77 @@
     </row>
     <row r="78" spans="3:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="27" x14ac:dyDescent="0.15">
       <c r="C84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C92" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C93" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="27" x14ac:dyDescent="0.15">
       <c r="C94" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C95" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C100" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C101" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="27" x14ac:dyDescent="0.15">
       <c r="C102" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C103" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1146,23 +1216,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B6:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD1AB68-C8CD-4B29-9816-BD6EADF291F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="init" sheetId="14" r:id="rId1"/>
     <sheet name="跨平台" sheetId="15" r:id="rId2"/>
+    <sheet name="自我扩展" sheetId="16" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
   </si>
@@ -395,11 +395,31 @@
     <t>重写OpenRead，重定向到目标语言的目录里面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>在引擎初始化的时候，就注册一个自己实现的最顶层的TopPlatformFile，继承自IPlatformFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅实现OpenRead函数即可，可以对要读取的文件进行重定向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE仅对自己的资产会执行重定向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非资产不管，所以需要我们自己管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以实现OpenWrite接口，方便进行本地文件的写入，这样子，开发者就需要关写入目录了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -542,6 +562,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -636,23 +657,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -688,23 +692,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -880,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H110"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -1216,10 +1203,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -1305,4 +1292,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7612069F-900A-4732-8264-78AB674A3C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="init" sheetId="14" r:id="rId1"/>
@@ -419,7 +420,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,10 +560,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,6 +658,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -692,6 +710,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -867,11 +902,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1016,94 +1051,94 @@
       </c>
     </row>
     <row r="51" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D52" s="10"/>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D53" s="10"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D54" s="10"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D55" s="10"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D56" s="10"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C57" s="8"/>
-      <c r="D57" s="10"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D58" s="10"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D59" s="10"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D60" s="10"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D61" s="10"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D62" s="10"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="3:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D63" s="10"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D64" s="10"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="3:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D65" s="10"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D66" s="10"/>
+      <c r="D66" s="11"/>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D67" s="10"/>
+      <c r="D67" s="11"/>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D68" s="10"/>
+      <c r="D68" s="11"/>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D69" s="10"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D70" s="10"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D71" s="10"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D72" s="10"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D73" s="10"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D74" s="7"/>
@@ -1203,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1295,17 +1330,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>66</v>
       </c>
     </row>

--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7612069F-900A-4732-8264-78AB674A3C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="init" sheetId="14" r:id="rId1"/>
     <sheet name="跨平台" sheetId="15" r:id="rId2"/>
     <sheet name="自我扩展" sheetId="16" r:id="rId3"/>
+    <sheet name="总结" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
   </si>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>LINUX：FUnixPlatformFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win：FWindowsPlatformFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -359,69 +355,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>class MYPROJECT2_API MyPlatformFile : public IPlatformFile</t>
+  </si>
+  <si>
+    <t>IFileHandle* MyPlatformFile::OpenRead(const TCHAR* Filename, bool bAllowWrite)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>FString newFileName = Filename;</t>
+  </si>
+  <si>
+    <t>newFileName = newFileName.Replace(TEXT("ui_cn"), TEXT("ui_en"));</t>
+  </si>
+  <si>
+    <t>IFileHandle* InnerHandle = LowerLevel-&gt;OpenRead(*newFileName, bAllowWrite);</t>
+  </si>
+  <si>
+    <t>if (!InnerHandle)</t>
+  </si>
+  <si>
+    <t>return nullptr;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>return InnerHandle;</t>
+  </si>
+  <si>
+    <t>重写OpenRead，重定向到目标语言的目录里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在引擎初始化的时候，就注册一个自己实现的最顶层的TopPlatformFile，继承自IPlatformFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅实现OpenRead函数即可，可以对要读取的文件进行重定向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE仅对自己的资产会执行重定向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非资产不管，所以需要我们自己管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以实现OpenWrite接口，方便进行本地文件的写入，这样子，开发者就需要关写入目录了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win：FWindowsPlatformFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LaunchCheckForFileOverride(CmdLine, bFileOverrideFound)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class MYPROJECT2_API MyPlatformFile : public IPlatformFile</t>
-  </si>
-  <si>
-    <t>IFileHandle* MyPlatformFile::OpenRead(const TCHAR* Filename, bool bAllowWrite)</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>FString newFileName = Filename;</t>
-  </si>
-  <si>
-    <t>newFileName = newFileName.Replace(TEXT("ui_cn"), TEXT("ui_en"));</t>
-  </si>
-  <si>
-    <t>IFileHandle* InnerHandle = LowerLevel-&gt;OpenRead(*newFileName, bAllowWrite);</t>
-  </si>
-  <si>
-    <t>if (!InnerHandle)</t>
-  </si>
-  <si>
-    <t>return nullptr;</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>return InnerHandle;</t>
-  </si>
-  <si>
-    <t>重写OpenRead，重定向到目标语言的目录里面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在引擎初始化的时候，就注册一个自己实现的最顶层的TopPlatformFile，继承自IPlatformFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅仅实现OpenRead函数即可，可以对要读取的文件进行重定向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UE仅对自己的资产会执行重定向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非资产不管，所以需要我们自己管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也可以实现OpenWrite接口，方便进行本地文件的写入，这样子，开发者就需要关写入目录了</t>
+    <t>系统原生的文件系统操作类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPlatformFile::GetPlatformPhysical()</t>
+  </si>
+  <si>
+    <t>安卓系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAndroidPlatformFile</t>
+  </si>
+  <si>
+    <t>HoloLens平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHoloLensPlatformFile</t>
+  </si>
+  <si>
+    <t>类unix平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUnixPlatformFile</t>
+  </si>
+  <si>
+    <t>FLuminPlatformFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FApplePlatformFile</t>
+  </si>
+  <si>
+    <t>FWindowsPlatformFile</t>
+  </si>
+  <si>
+    <t>Windows平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAK文件操作类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPakPlatformFile</t>
+  </si>
+  <si>
+    <t>缓存文件操作，其实内部文件操作都是使用其下层的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并且是仅仅针对OpenRead和OpenWrite进行特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicLeap平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLoggedPlatformFile</t>
+  </si>
+  <si>
+    <t>FPlatformFileOpenLog</t>
+  </si>
+  <si>
+    <t>各种调试日志等文件系统等，和资源读取没关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSandboxPlatformFile</t>
+  </si>
+  <si>
+    <t>打包文件读取，写不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台原生的文件读写操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCachedReadPlatformFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最底层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认读取的目录：Saved/Cooked/WindowsNoEditor/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上至下依次读取，没有当前没有找到文件，则通过LowLevel跳到下一层继续操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质上就是读取下载目录的散资源，但是不考虑压缩加密</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +629,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -531,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -564,6 +701,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -580,6 +720,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2124075" y="1562100"/>
+          <a:ext cx="9525" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,23 +850,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -710,23 +885,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -902,11 +1060,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -926,7 +1084,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -941,7 +1099,7 @@
     </row>
     <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -949,19 +1107,19 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -979,80 +1137,80 @@
     </row>
     <row r="43" spans="3:8" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.15">
@@ -1064,7 +1222,7 @@
     <row r="54" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D54" s="11"/>
       <c r="E54" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.15">
@@ -1083,19 +1241,19 @@
     <row r="59" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D59" s="11"/>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D60" s="11"/>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D61" s="11"/>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1107,13 +1265,13 @@
     <row r="64" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D64" s="11"/>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="3:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D65" s="11"/>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.15">
@@ -1154,77 +1312,77 @@
     </row>
     <row r="78" spans="3:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="27" x14ac:dyDescent="0.15">
       <c r="C84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C92" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C93" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="27" x14ac:dyDescent="0.15">
       <c r="C94" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C95" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C100" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C101" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="27" x14ac:dyDescent="0.15">
       <c r="C102" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C103" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C104" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1249,77 +1407,77 @@
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1341,12 +1499,12 @@
   <sheetData>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
@@ -1354,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
@@ -1362,12 +1520,12 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1375,4 +1533,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D23" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D27" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D29" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D31" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D33" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D35" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D37" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D39" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300568EC-9E46-4886-A605-4D80089F0BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="init" sheetId="14" r:id="rId1"/>
@@ -492,57 +493,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>打包文件读取，写不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台原生的文件读写操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCachedReadPlatformFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最底层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认读取的目录：Saved/Cooked/WindowsNoEditor/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上至下依次读取，没有当前没有找到文件，则通过LowLevel跳到下一层继续操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质上就是读取下载目录的散资源，但是不考虑压缩加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FSandboxPlatformFile</t>
-  </si>
-  <si>
-    <t>打包文件读取，写不了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台原生的文件读写操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCachedReadPlatformFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最底层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认读取的目录：Saved/Cooked/WindowsNoEditor/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从上至下依次读取，没有当前没有找到文件，则通过LowLevel跳到下一层继续操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本质上就是读取下载目录的散资源，但是不考虑压缩加密</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,12 +700,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -739,7 +741,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -850,6 +858,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -885,6 +910,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1060,7 +1102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:H110"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1209,94 +1251,94 @@
       </c>
     </row>
     <row r="51" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D52" s="11"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D53" s="11"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D54" s="11"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D55" s="11"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D56" s="11"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C57" s="8"/>
-      <c r="D57" s="11"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D58" s="11"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D59" s="11"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D60" s="11"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D61" s="11"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D62" s="11"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="3:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D63" s="11"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D64" s="11"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="65" spans="3:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D65" s="11"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D66" s="11"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D67" s="11"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D68" s="11"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D69" s="11"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D70" s="11"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D71" s="11"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D72" s="11"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D73" s="11"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D74" s="7"/>
@@ -1396,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1488,7 +1530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1536,40 +1578,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C7:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C8" s="12" t="s">
-        <v>102</v>
+      <c r="C8" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C10" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
@@ -1582,71 +1624,71 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="C14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C18" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C22" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D23" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="D23" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
@@ -1654,21 +1696,21 @@
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C26" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="D27" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D28" t="s">

--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300568EC-9E46-4886-A605-4D80089F0BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="init" sheetId="14" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
   </si>
@@ -529,22 +528,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从上至下依次读取，没有当前没有找到文件，则通过LowLevel跳到下一层继续操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本质上就是读取下载目录的散资源，但是不考虑压缩加密</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FSandboxPlatformFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（主要指编辑器下读取散资源，打包后一般都是读取PAK）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上至下依次读取，没有当前platformfile没有找到文件，则通过LowLevel跳到下一层继续操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset里面的pak</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -736,7 +743,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -858,23 +865,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -910,23 +900,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1102,7 +1075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H110"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1438,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1530,7 +1503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1578,11 +1551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C7:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1598,7 +1571,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C8" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.15">
@@ -1628,7 +1601,7 @@
         <v>96</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1646,7 +1619,7 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.15">
@@ -1713,67 +1686,77 @@
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D28" t="s">
+      <c r="D28" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D29" s="10" t="s">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D30" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="E30" t="s">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D31" s="10" t="s">
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D32" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="E32" t="s">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D33" s="10" t="s">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D34" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E34" t="s">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D35" s="10" t="s">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D36" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E36" t="s">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D37" s="10" t="s">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D38" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E38" t="s">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D39" s="10" t="s">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D40" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E40" t="s">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E41" t="s">
         <v>81</v>
       </c>
     </row>

--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
   <si>
     <t>FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
   </si>
@@ -545,6 +545,23 @@
   </si>
   <si>
     <t>asset里面的pak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>！！！编辑器下，试用命令行参数开启：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-UsePaks</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1552,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:H41"/>
+  <dimension ref="C7:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,7 +1639,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C18" s="11" t="s">
         <v>97</v>
       </c>
@@ -1634,7 +1651,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D19" s="13" t="s">
         <v>86</v>
       </c>
@@ -1643,12 +1660,12 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C22" s="11" t="s">
         <v>98</v>
       </c>
@@ -1657,18 +1674,21 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D23" s="13" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="O24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C26" s="11" t="s">
         <v>99</v>
       </c>
@@ -1678,31 +1698,31 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D27" s="13" t="s">
         <v>93</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D28" s="13" t="s">
         <v>103</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D30" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
         <v>74</v>
       </c>
@@ -1710,7 +1730,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D32" s="10" t="s">
         <v>75</v>
       </c>

--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B441BE13-F468-42F0-B4BC-9B2524550CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="init" sheetId="14" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
   </si>
@@ -564,11 +565,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>!!!优先读取下载目录，目前的SaveGame等都是用的该机制，所以不能去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -882,6 +887,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -917,6 +939,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1092,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:H110"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1428,7 +1467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1520,7 +1559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1568,11 +1607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C7:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1581,17 +1620,17 @@
     <col min="3" max="3" width="6.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C8" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C10" s="11" t="s">
         <v>95</v>
       </c>
@@ -1603,17 +1642,17 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C14" s="11" t="s">
         <v>96</v>
       </c>
@@ -1625,7 +1664,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D15" s="13" t="s">
         <v>100</v>
       </c>
@@ -1633,8 +1672,11 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="O15" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>102</v>
       </c>

--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B441BE13-F468-42F0-B4BC-9B2524550CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB536C25-03DE-4411-B4FA-827E60440917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
   <si>
     <t>FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
   </si>
@@ -567,6 +567,10 @@
   </si>
   <si>
     <t>!!!优先读取下载目录，目前的SaveGame等都是用的该机制，所以不能去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows下面，对于COOK的Shader加载也是用这个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +1615,7 @@
   <dimension ref="C7:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1680,6 +1684,9 @@
       <c r="D16" t="s">
         <v>102</v>
       </c>
+      <c r="O16" s="10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C18" s="11" t="s">

--- a/doc/ue_platformfile.xlsx
+++ b/doc/ue_platformfile.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB536C25-03DE-4411-B4FA-827E60440917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE623C0-CDC2-479A-BB3E-27C8A452FD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="init" sheetId="14" r:id="rId1"/>
     <sheet name="跨平台" sheetId="15" r:id="rId2"/>
     <sheet name="自我扩展" sheetId="16" r:id="rId3"/>
     <sheet name="总结" sheetId="17" r:id="rId4"/>
+    <sheet name="sandbox" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
   <si>
     <t>FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
   </si>
@@ -571,6 +572,58 @@
   </si>
   <si>
     <t>Windows下面，对于COOK的Shader加载也是用这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFileHandle* FSandboxPlatformFile::OpenRead(const TCHAR* Filename, bool bAllowWrite)</t>
+  </si>
+  <si>
+    <t>IFileHandle* Result = LowerLevel-&gt;OpenRead(*ConvertToSandboxPath(Filename), bAllowWrite);</t>
+  </si>
+  <si>
+    <t>if (!Result &amp;&amp; OkForInnerAccess(Filename))</t>
+  </si>
+  <si>
+    <t>Result = LowerLevel-&gt;OpenRead(Filename);</t>
+  </si>
+  <si>
+    <t>return Result;</t>
+  </si>
+  <si>
+    <t>！！！将文件转为到沙盒目录，有限读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！沙盒读取失败，则默认路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFileHandle* FSandboxPlatformFile::OpenWrite(const TCHAR* Filename, bool bAppend, bool bAllowRead)</t>
+  </si>
+  <si>
+    <t>// Only files from the sandbox directory can be opened for wiriting</t>
+  </si>
+  <si>
+    <t>return LowerLevel-&gt;OpenWrite(*ConvertToSandboxPath(Filename), bAppend, bAllowRead);</t>
+  </si>
+  <si>
+    <t>！！！一律在沙盒目录下写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这就带来一个问题，我们所有的文件写入，包括日志，都是重定向到了沙盒目录下的，但是上层不知道；要想获取其绝对目录也不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙盒模式是默认自带的，主要作用，将文件写入重定向到沙河目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1614,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C7:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -1835,4 +1888,129 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAEA9DA-AC0C-4530-968B-0BF21DA8BE4C}">
+  <dimension ref="B2:Q28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B19" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B28" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>